--- a/URLs of Interest.xlsx
+++ b/URLs of Interest.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
   <si>
     <t>Michael Ess-Haghabodi</t>
   </si>
@@ -28,7 +28,7 @@
     <t>Site Name</t>
   </si>
   <si>
-    <t>Project</t>
+    <t>Project/Handle</t>
   </si>
   <si>
     <t>Comment</t>
@@ -88,6 +88,9 @@
     <t>Discord</t>
   </si>
   <si>
+    <t>Malpercio#9703</t>
+  </si>
+  <si>
     <t>Where I post about private servers, events, etc</t>
   </si>
   <si>
@@ -116,6 +119,12 @@
   </si>
   <si>
     <t>Host</t>
+  </si>
+  <si>
+    <t>Telegram</t>
+  </si>
+  <si>
+    <t>Malpercio</t>
   </si>
   <si>
     <t>Other Projects</t>
@@ -531,107 +540,118 @@
       <c r="A6" s="5" t="s">
         <v>24</v>
       </c>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="C6" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="12">
       <c r="H12" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13">
       <c r="H13" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14">
       <c r="I14" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15">
       <c r="I15" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16">
       <c r="I16" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17">
       <c r="I17" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18">
       <c r="H18" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19">
       <c r="I19" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20">
       <c r="I20" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21">
       <c r="I21" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22">
       <c r="H22" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23">
       <c r="H23" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24">
       <c r="H24" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -646,7 +666,8 @@
     <hyperlink r:id="rId8" ref="H5"/>
     <hyperlink r:id="rId9" ref="A6"/>
     <hyperlink r:id="rId10" ref="A8"/>
+    <hyperlink r:id="rId11" ref="B9"/>
   </hyperlinks>
-  <drawing r:id="rId11"/>
+  <drawing r:id="rId12"/>
 </worksheet>
 </file>